--- a/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/调查问卷内容导入模版.xlsx
+++ b/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/调查问卷内容导入模版.xlsx
@@ -28,9 +28,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">填写须知：
 </t>
     </r>
@@ -42,7 +49,7 @@
       </rPr>
       <t>1. 请勿修改表格结构；
 2. 标红字段为必填项，黑色字段为选填项；
-3. 仅支持单选题、多选题、简答题。</t>
+3. 支持单选题、多选题、简答题、多维。</t>
     </r>
   </si>
   <si>
@@ -86,6 +93,78 @@
   </si>
   <si>
     <t>简答题题目内容</t>
+  </si>
+  <si>
+    <t>二维单选题</t>
+  </si>
+  <si>
+    <t>二维单选题目内容</t>
+  </si>
+  <si>
+    <t>差强人意</t>
+  </si>
+  <si>
+    <t>还不错</t>
+  </si>
+  <si>
+    <t>挺好</t>
+  </si>
+  <si>
+    <t>特别好</t>
+  </si>
+  <si>
+    <t>考试系统界面</t>
+  </si>
+  <si>
+    <t>考试系统功能</t>
+  </si>
+  <si>
+    <t>考试系统性能</t>
+  </si>
+  <si>
+    <t>考试系统安全</t>
+  </si>
+  <si>
+    <t>二维多选题</t>
+  </si>
+  <si>
+    <t>二维多选题目内容</t>
+  </si>
+  <si>
+    <t>starme</t>
+  </si>
+  <si>
+    <t>forkme</t>
+  </si>
+  <si>
+    <t>继续努力</t>
+  </si>
+  <si>
+    <t>基本符合</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>三维单选题</t>
+  </si>
+  <si>
+    <t>三维单选题目内容</t>
+  </si>
+  <si>
+    <t>我们的</t>
+  </si>
+  <si>
+    <t>你们的</t>
+  </si>
+  <si>
+    <t>他们的</t>
+  </si>
+  <si>
+    <t>三维多选题</t>
+  </si>
+  <si>
+    <t>三维多选题目内容</t>
   </si>
 </sst>
 </file>
@@ -1064,18 +1143,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="28.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="13.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="13.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="12.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="12.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="11.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="109" customHeight="1" spans="1:6">
@@ -1160,12 +1242,249 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A19 A20:A23 A24:A165">
+      <formula1>Sheet2!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A166:A1048576">
       <formula1>Sheet2!$A$2:$A$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -1177,13 +1496,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1203,6 +1525,26 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
